--- a/tabular/genus/ave-refseqs-side-data.xlsx
+++ b/tabular/genus/ave-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478F1E54-4F1F-7540-9E06-64E2C7F7F096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E4BC2B-082E-9D4D-A0C8-9791786DEBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14020" yWindow="8500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5360" yWindow="8080" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REFSET" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>accession-ID</t>
   </si>
@@ -75,19 +75,43 @@
     <t>NK</t>
   </si>
   <si>
-    <t>MG972981</t>
+    <t>MW046460</t>
   </si>
   <si>
-    <t>Copiparvovirus</t>
+    <t>NC_038534</t>
   </si>
   <si>
-    <t>Bos taurus</t>
+    <t>NC_040672</t>
   </si>
   <si>
-    <t>BPV</t>
+    <t>Ara ararauna aveparvovirus</t>
   </si>
   <si>
-    <t>Bovine parvovirus</t>
+    <t>Turkey parvovirus 260</t>
+  </si>
+  <si>
+    <t>Red-crowned crane parvovirus</t>
+  </si>
+  <si>
+    <t>Ara ararauna</t>
+  </si>
+  <si>
+    <t>Aveparvovirus</t>
+  </si>
+  <si>
+    <t>TurkeyAvePV</t>
+  </si>
+  <si>
+    <t>Grus japonensis</t>
+  </si>
+  <si>
+    <t>Meleagris gallopavo</t>
+  </si>
+  <si>
+    <t>CraneAvePV</t>
+  </si>
+  <si>
+    <t>MacawAvePV</t>
   </si>
 </sst>
 </file>
@@ -2334,10 +2358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L4" sqref="A1:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2395,22 +2419,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -2428,6 +2452,82 @@
         <v>12</v>
       </c>
       <c r="L2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" t="b">
         <v>0</v>
       </c>
     </row>

--- a/tabular/genus/ave-refseqs-side-data.xlsx
+++ b/tabular/genus/ave-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E4BC2B-082E-9D4D-A0C8-9791786DEBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A63092-0180-7C49-B389-7EC5334B4719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5360" yWindow="8080" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
-  <si>
-    <t>accession-ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>virus_name</t>
   </si>
@@ -112,6 +109,15 @@
   </si>
   <si>
     <t>MacawAvePV</t>
+  </si>
+  <si>
+    <t>sequenceID</t>
+  </si>
+  <si>
+    <t>virus_subfamily</t>
+  </si>
+  <si>
+    <t>Parvovirinae</t>
   </si>
 </sst>
 </file>
@@ -2358,10 +2364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L4" sqref="A1:L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2371,169 +2377,181 @@
     <col min="3" max="3" width="41" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="19.5" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="6" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="19.5" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>5</v>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" t="b">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L2">
-    <sortCondition ref="H2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M2">
+    <sortCondition ref="I2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/tabular/genus/ave-refseqs-side-data.xlsx
+++ b/tabular/genus/ave-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A63092-0180-7C49-B389-7EC5334B4719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C67050-5E90-374C-9A5A-F6FBC6B4B9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5360" yWindow="8080" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2367,7 +2367,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B4" sqref="A1:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/genus/ave-refseqs-side-data.xlsx
+++ b/tabular/genus/ave-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C67050-5E90-374C-9A5A-F6FBC6B4B9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB67D51-15E7-E34A-86C9-664846CC5F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5360" yWindow="8080" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
     <t>virus_name</t>
   </si>
@@ -118,6 +118,18 @@
   </si>
   <si>
     <t>Parvovirinae</t>
+  </si>
+  <si>
+    <t>MG745672</t>
+  </si>
+  <si>
+    <t>FinchAvePV</t>
+  </si>
+  <si>
+    <t>Pileated finch aveparvovirus</t>
+  </si>
+  <si>
+    <t>Coryphospingus pileatus</t>
   </si>
 </sst>
 </file>
@@ -2364,10 +2376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:M4"/>
+      <selection activeCell="D4" sqref="A1:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2549,6 +2561,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M2">
     <sortCondition ref="I2"/>
